--- a/Defense/RKLB.xlsx
+++ b/Defense/RKLB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Defense/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CF92C0-8371-C747-BFE2-9FCF5D7AAB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AB00B2-FFAC-7848-A6EB-EA060F0B1066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1943,13 +1943,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>12.085000000000001</v>
+    <v>13.89</v>
     <v>3.47</v>
-    <v>1.3240000000000001</v>
-    <v>-0.51</v>
-    <v>-4.4463999999999997E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.3451</v>
+    <v>0.41</v>
+    <v>3.1418000000000001E-2</v>
+    <v>0.02</v>
+    <v>1.4860000000000001E-3</v>
     <v>USD</v>
     <v>Rocket Lab USA, Inc. is an end-to-end space company. The Company designs and manufactures small and medium-class rockets, spacecraft and spacecraft components and related software and services to support the space economy. The Company delivers reliable launch services, spacecraft design services, spacecraft components, spacecraft manufacturing and other spacecraft and on-orbit management solutions that make it easier to access space. The Company's Launch Services segment provides launch and launch related services to customers on a dedicated mission or ride share basis. Its Space Systems segment comprises spacecraft engineering and design services, spacecraft components, spacecraft manufacturing and on-orbit mission operations. Its space systems solutions are the building blocks for spacecraft, which include composite structures, reaction wheels, star trackers, solar solutions, radios, separation systems, command and control spacecraft software and power solutions.</v>
     <v>1650</v>
@@ -1957,25 +1957,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>3881 Mcgowen Street, LONG BEACH, CA, 90808 US</v>
-    <v>11.63</v>
+    <v>13.89</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45595.999870520311</v>
+    <v>45604.041587858592</v>
     <v>0</v>
-    <v>10.95</v>
-    <v>5443175496</v>
+    <v>13.08</v>
+    <v>6684775746</v>
     <v>ROCKET LAB USA, INC.</v>
     <v>ROCKET LAB USA, INC.</v>
-    <v>11.35</v>
+    <v>13.5</v>
     <v>0</v>
-    <v>11.47</v>
-    <v>10.96</v>
-    <v>10.96</v>
+    <v>13.05</v>
+    <v>13.46</v>
+    <v>13.48</v>
     <v>496640100</v>
     <v>RKLB</v>
     <v>ROCKET LAB USA, INC. (XNAS:RKLB)</v>
-    <v>9128508</v>
-    <v>14611699</v>
+    <v>15823830</v>
+    <v>11890973</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2140,9 +2140,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2869,7 +2869,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2902,14 +2902,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>10.96</v>
+        <v>13.46</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="43">
         <f ca="1">A5/F10</f>
-        <v>12.868027177304965</v>
+        <v>15.803252354609929</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2949,14 +2949,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-4.4463999999999997E-2</v>
+        <v>3.1418000000000001E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="43">
         <f ca="1">A5/F15</f>
-        <v>-40.772850157303374</v>
+        <v>-50.073226561797753</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2997,14 +2997,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="41" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>5443175496</v>
+        <v>6684775746</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="44">
         <f ca="1">F18/A5</f>
-        <v>-3.3068931937299414E-2</v>
+        <v>-2.6926856911798039E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3046,7 +3046,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.3240000000000001</v>
+        <v>1.3451</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="K6" s="50">
         <f ca="1">K5/A3-1</f>
-        <v>-0.50687935447916777</v>
+        <v>-0.5984693703634234</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Defense/RKLB.xlsx
+++ b/Defense/RKLB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Defense/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AB00B2-FFAC-7848-A6EB-EA060F0B1066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE75904B-8E8E-564A-B3F0-D726FEC439DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>

--- a/Defense/RKLB.xlsx
+++ b/Defense/RKLB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Defense/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE75904B-8E8E-564A-B3F0-D726FEC439DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CDDABC-7047-0243-A0A5-BDD1DACF5030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1943,13 +1943,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>13.89</v>
+    <v>22.55</v>
     <v>3.47</v>
-    <v>1.3451</v>
-    <v>0.41</v>
-    <v>3.1418000000000001E-2</v>
-    <v>0.02</v>
-    <v>1.4860000000000001E-3</v>
+    <v>1.4319</v>
+    <v>0.28999999999999998</v>
+    <v>1.5263000000000001E-2</v>
+    <v>0.01</v>
+    <v>5.1840000000000002E-4</v>
     <v>USD</v>
     <v>Rocket Lab USA, Inc. is an end-to-end space company. The Company designs and manufactures small and medium-class rockets, spacecraft and spacecraft components and related software and services to support the space economy. The Company delivers reliable launch services, spacecraft design services, spacecraft components, spacecraft manufacturing and other spacecraft and on-orbit management solutions that make it easier to access space. The Company's Launch Services segment provides launch and launch related services to customers on a dedicated mission or ride share basis. Its Space Systems segment comprises spacecraft engineering and design services, spacecraft components, spacecraft manufacturing and on-orbit mission operations. Its space systems solutions are the building blocks for spacecraft, which include composite structures, reaction wheels, star trackers, solar solutions, radios, separation systems, command and control spacecraft software and power solutions.</v>
     <v>1650</v>
@@ -1957,25 +1957,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>3881 Mcgowen Street, LONG BEACH, CA, 90808 US</v>
-    <v>13.89</v>
+    <v>20.350000000000001</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45604.041587858592</v>
+    <v>45615.041626342187</v>
     <v>0</v>
-    <v>13.08</v>
-    <v>6684775746</v>
+    <v>18.47</v>
+    <v>9580187529</v>
     <v>ROCKET LAB USA, INC.</v>
     <v>ROCKET LAB USA, INC.</v>
-    <v>13.5</v>
+    <v>19.54</v>
     <v>0</v>
-    <v>13.05</v>
-    <v>13.46</v>
-    <v>13.48</v>
+    <v>19</v>
+    <v>19.29</v>
+    <v>19.3</v>
     <v>496640100</v>
     <v>RKLB</v>
     <v>ROCKET LAB USA, INC. (XNAS:RKLB)</v>
-    <v>15823830</v>
-    <v>11890973</v>
+    <v>29165923</v>
+    <v>20858555</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2869,7 +2869,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2902,14 +2902,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>13.46</v>
+        <v>19.29</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="43">
         <f ca="1">A5/F10</f>
-        <v>15.803252354609929</v>
+        <v>22.648197468085108</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2949,14 +2949,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.1418000000000001E-2</v>
+        <v>1.5263000000000001E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="43">
         <f ca="1">A5/F15</f>
-        <v>-50.073226561797753</v>
+        <v>-71.761704337078655</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2997,14 +2997,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="41" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>6684775746</v>
+        <v>9580187529</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="44">
         <f ca="1">F18/A5</f>
-        <v>-2.6926856911798039E-2</v>
+        <v>-1.8788776258828493E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3046,7 +3046,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.3451</v>
+        <v>1.4319</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="K6" s="50">
         <f ca="1">K5/A3-1</f>
-        <v>-0.5984693703634234</v>
+        <v>-0.71982362493995222</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
